--- a/Emission_source_CHANS.xlsx
+++ b/Emission_source_CHANS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AU775281/Documents/Msc Ali Fakhar/After Denmark/Manuscript CHANS and Field/Raw Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Fakhar-2025-CHANS-Ammonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D1252-DE0F-B543-9B7B-8EBC970DBA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128E29F-E841-4286-B079-14EB7B43795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{172B2A7E-B9CB-4B67-89DA-FA944B287B1D}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{172B2A7E-B9CB-4B67-89DA-FA944B287B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>grass</t>
+    <t>NH3 Emissions Calculted by CHANS Medel</t>
   </si>
   <si>
-    <t>year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>total</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>agri</t>
+    <t>Agriculture</t>
   </si>
   <si>
-    <t>aqua</t>
+    <t>Grassland</t>
   </si>
   <si>
-    <t>indus</t>
+    <t>Aquaculture</t>
   </si>
   <si>
-    <t>human</t>
+    <t>Industries</t>
   </si>
   <si>
-    <t>crop</t>
+    <t>Human</t>
   </si>
   <si>
-    <t>live</t>
+    <t>Other</t>
   </si>
   <si>
-    <t>up</t>
+    <t>Cropland</t>
   </si>
   <si>
-    <t>low</t>
+    <t>Livestock</t>
   </si>
   <si>
-    <t>other</t>
+    <t>Upland</t>
+  </si>
+  <si>
+    <t>Lowland</t>
   </si>
 </sst>
 </file>
@@ -87,15 +90,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,12 +118,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,794 +555,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249C2A73-1C26-4CC1-A20B-C79E8055C1B4}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2001</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>235.9503254</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>171.12769741068101</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1.44918884725171</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>6.8155537839999996</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>3.5684622099999999</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>50.856763009879401</v>
       </c>
-      <c r="H2">
-        <f>SUM(D2:G2)</f>
+      <c r="H3">
         <v>62.689967851131115</v>
       </c>
-      <c r="I2">
-        <v>33.321870415701703</v>
-      </c>
-      <c r="J2">
+      <c r="I3">
+        <v>30.079398225361928</v>
+      </c>
+      <c r="J3">
         <v>137.94355680000001</v>
       </c>
-      <c r="K2">
-        <v>9.9806253150589992</v>
-      </c>
-      <c r="L2">
-        <v>19.0972049600161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="K3">
+        <v>10.812031469282928</v>
+      </c>
+      <c r="L3" s="8">
+        <v>19.267366756078999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>2002</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>223.7116963</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>168.699107498572</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1.4859057915909899</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>6.6130538039999998</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>3.2965430699999998</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>42.0761586409267</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H20" si="0">SUM(D3:G3)</f>
+      <c r="H4">
         <v>53.471661306517689</v>
       </c>
-      <c r="I3">
-        <v>35.063592066165803</v>
-      </c>
-      <c r="J3">
+      <c r="I4">
+        <v>30.233033604615326</v>
+      </c>
+      <c r="J4">
         <v>134.4198347</v>
       </c>
-      <c r="K3">
-        <v>9.9858892621142203</v>
-      </c>
-      <c r="L3">
-        <v>19.268090424246498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="K4">
+        <v>10.857502335041627</v>
+      </c>
+      <c r="L4" s="8">
+        <v>19.375531269573695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>2003</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>217.10662210999999</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>176.689644696469</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1.5300340882560799</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>4.582746223</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>3.02534744</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>29.7931789334549</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
+      <c r="H5">
         <v>38.931306684710975</v>
       </c>
-      <c r="I4">
-        <v>33.805233669268397</v>
-      </c>
-      <c r="J4">
+      <c r="I5">
+        <v>29.091712448869259</v>
+      </c>
+      <c r="J5">
         <v>143.69360750000001</v>
       </c>
-      <c r="K4">
-        <v>9.1425781106357498</v>
-      </c>
-      <c r="L4">
-        <v>18.506786782097802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K5">
+        <v>10.447622953580758</v>
+      </c>
+      <c r="L5" s="8">
+        <v>18.644089495288505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>2004</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>251.85771869999999</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>182.27039414615601</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1.5770412180162301</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>6.1474553350000001</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>3.0267559500000001</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>56.803850633779</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="H6">
         <v>67.555103136795225</v>
       </c>
-      <c r="I5">
-        <v>36.465049027400802</v>
-      </c>
-      <c r="J5">
+      <c r="I6">
+        <v>30.521366884996709</v>
+      </c>
+      <c r="J6">
         <v>146.96270569999999</v>
       </c>
-      <c r="K5">
-        <v>9.4483787563476707</v>
-      </c>
-      <c r="L5">
-        <v>19.1898166997868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="K6">
+        <v>10.961050636080564</v>
+      </c>
+      <c r="L6" s="8">
+        <v>19.560316248916145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>2005</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>245.638047</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>179.719461354034</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1.6063726455328</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5.7304318629999997</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>3.3104651399999998</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>53.472370150581398</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="H7">
         <v>64.119639799114196</v>
       </c>
-      <c r="I6">
-        <v>29.7424541017769</v>
-      </c>
-      <c r="J6">
+      <c r="I7">
+        <v>25.783343440948013</v>
+      </c>
+      <c r="J7">
         <v>151.00617460000001</v>
       </c>
-      <c r="K6">
-        <v>8.3031768215789601</v>
-      </c>
-      <c r="L6">
-        <v>16.561460993372901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="K7">
+        <v>9.2594979146431928</v>
+      </c>
+      <c r="L7" s="8">
+        <v>16.523845526304822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>2006</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>244.94748131</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>176.61531712197601</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1.64882736876742</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>6.3938067959999998</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>3.22413894</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>53.597938685869998</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="H8">
         <v>64.864711790637415</v>
       </c>
-      <c r="I7">
-        <v>19.9839485796392</v>
-      </c>
-      <c r="J7">
+      <c r="I8">
+        <v>19.968039652887143</v>
+      </c>
+      <c r="J8">
         <v>159.1938936</v>
       </c>
-      <c r="K7">
-        <v>6.5046999359681497</v>
-      </c>
-      <c r="L7">
-        <v>12.390530106195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="K8">
+        <v>7.1710646041265642</v>
+      </c>
+      <c r="L8" s="8">
+        <v>12.796975048760579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>2007</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>357.48171860000002</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>220.27782547383001</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1.68366089130858</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>6.813440086</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2.65689325</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>124.269999977936</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
+      <c r="H9">
         <v>135.42399420524458</v>
       </c>
-      <c r="I8">
-        <v>23.145430916079999</v>
-      </c>
-      <c r="J8">
+      <c r="I9">
+        <v>21.656489749566244</v>
+      </c>
+      <c r="J9">
         <v>197.93420219999999</v>
       </c>
-      <c r="K8">
-        <v>7.23434935185829</v>
-      </c>
-      <c r="L8">
-        <v>13.5659165670339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="K9">
+        <v>7.7774328272775479</v>
+      </c>
+      <c r="L9" s="8">
+        <v>13.879056922288695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>2008</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>273.04375399999998</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>211.686367422909</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1.7186507659347401</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>7.1605153509999999</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>3.1833695299999998</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>46.369152977658104</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
+      <c r="H10">
         <v>58.431688624592844</v>
       </c>
-      <c r="I9">
-        <v>26.2153141519093</v>
-      </c>
-      <c r="J9">
+      <c r="I10">
+        <v>24.194188043696428</v>
+      </c>
+      <c r="J10">
         <v>187.8043179</v>
       </c>
-      <c r="K9">
-        <v>7.8194531965856902</v>
-      </c>
-      <c r="L9">
-        <v>15.3188169845853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="K10">
+        <v>8.6887891110857147</v>
+      </c>
+      <c r="L10" s="8">
+        <v>15.505398932610715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>2009</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>288.74072051000002</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>221.09772795642601</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1.7478827029988799</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>7.022652334</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>3.02981715</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>52.002527990534297</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
+      <c r="H11">
         <v>63.802880177533176</v>
       </c>
-      <c r="I10">
-        <v>22.45746824671</v>
-      </c>
-      <c r="J10">
+      <c r="I11">
+        <v>21.545522369660713</v>
+      </c>
+      <c r="J11">
         <v>202.03423190000001</v>
       </c>
-      <c r="K10">
-        <v>7.2910251172905998</v>
-      </c>
-      <c r="L10">
-        <v>13.977944142191101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="K11">
+        <v>7.737581431542857</v>
+      </c>
+      <c r="L11" s="8">
+        <v>13.807940938117856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>2010</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>304.64770691000001</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>230.78278290252899</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1.76188792385622</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>7.7256399</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>2.7925799800000002</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>57.294748401095802</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
+      <c r="H12">
         <v>69.574856204952027</v>
       </c>
-      <c r="I11">
-        <v>22.374700772700901</v>
-      </c>
-      <c r="J11">
+      <c r="I12">
+        <v>22.018939280071425</v>
+      </c>
+      <c r="J12">
         <v>212.43083300000001</v>
       </c>
-      <c r="K11">
-        <v>7.6661327619741799</v>
-      </c>
-      <c r="L11">
-        <v>14.0821494904646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="K12">
+        <v>7.9075982838857151</v>
+      </c>
+      <c r="L12" s="8">
+        <v>14.11134099618571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>2011</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>280.1989256</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>221.60804015069201</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1.77448739761268</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>8.6015776339999999</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>2.9159293700000002</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>52.197810791875703</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
+      <c r="H13">
         <v>65.48980519348838</v>
       </c>
-      <c r="I12">
-        <v>27.294710656145501</v>
-      </c>
-      <c r="J12">
+      <c r="I13">
+        <v>25.017136828000002</v>
+      </c>
+      <c r="J13">
         <v>186.66491091</v>
       </c>
-      <c r="K12">
-        <v>8.6376863937920394</v>
-      </c>
-      <c r="L12">
-        <v>16.115521517773001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="K13">
+        <v>8.9843323392000016</v>
+      </c>
+      <c r="L13" s="8">
+        <v>16.0328044888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>2012</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>350.13423931</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>240.2886431915</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.7798231212092701</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>8.1873586370000009</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>3.0915556300000002</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>48.725461086111501</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
+      <c r="H14">
         <v>61.784198474320775</v>
       </c>
-      <c r="I13">
-        <v>22.464589620299101</v>
-      </c>
-      <c r="J13">
+      <c r="I14">
+        <v>22.215280695982141</v>
+      </c>
+      <c r="J14">
         <v>211.75145599999999</v>
       </c>
-      <c r="K13">
-        <v>8.3140546415059404</v>
-      </c>
-      <c r="L13">
-        <v>14.563455393757801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="K14">
+        <v>7.9781098114285705</v>
+      </c>
+      <c r="L14" s="8">
+        <v>14.237170884553572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>2013</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>324.20640550000002</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>229.46147412527901</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>1.76906788549354</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>9.196603927</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>3.0968595300000001</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>61.969615663773702</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="H15">
         <v>76.032147006267238</v>
       </c>
-      <c r="I14">
-        <v>22.389334977495299</v>
-      </c>
-      <c r="J14">
+      <c r="I15">
+        <v>21.48138312794643</v>
+      </c>
+      <c r="J15">
         <v>211.4563607</v>
       </c>
-      <c r="K14">
-        <v>8.2334687520936303</v>
-      </c>
-      <c r="L14">
-        <v>13.8219756392941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="K15">
+        <v>7.7145472902857151</v>
+      </c>
+      <c r="L15" s="8">
+        <v>13.766835837660713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>2014</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>318.27413389999998</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>228.13768375046001</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1.7539868553492799</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>9.8998183619999995</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>3.0146818899999999</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>58.472594769158398</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
+      <c r="H16">
         <v>73.141081876507684</v>
       </c>
-      <c r="I15">
-        <v>20.2220188012455</v>
-      </c>
-      <c r="J15">
+      <c r="I16">
+        <v>20.932781571589288</v>
+      </c>
+      <c r="J16">
         <v>222.5501012</v>
       </c>
-      <c r="K15">
-        <v>7.5115909137398402</v>
-      </c>
-      <c r="L15">
-        <v>12.859853437899799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="K16">
+        <v>7.5175295924571435</v>
+      </c>
+      <c r="L16" s="8">
+        <v>13.415251979132142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>2015</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>331.0076914</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>230.50472489200101</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1.74086193111111</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>6.5426584429999997</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>2.9426821900000002</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>57.7199793493917</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
+      <c r="H17">
         <v>68.946181913502812</v>
       </c>
-      <c r="I16">
-        <v>19.1436659868723</v>
-      </c>
-      <c r="J16">
+      <c r="I17">
+        <v>18.350918551428574</v>
+      </c>
+      <c r="J17">
         <v>246.12683010999999</v>
       </c>
-      <c r="K16">
-        <v>7.1630619373449598</v>
-      </c>
-      <c r="L16">
-        <v>11.862359560916101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="K17">
+        <v>6.5903125577142863</v>
+      </c>
+      <c r="L17" s="8">
+        <v>11.760605993714289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>2016</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>314.38566659999998</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>236.22776207328101</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1.7363156258594099</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>8.9331676029999905</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>2.7311014500000002</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>59.412689722136697</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
+      <c r="H18">
         <v>72.813274400996093</v>
       </c>
-      <c r="I17">
-        <v>19.3249886960295</v>
-      </c>
-      <c r="J17">
+      <c r="I18">
+        <v>19.901867536071425</v>
+      </c>
+      <c r="J18">
         <v>221.9209731</v>
       </c>
-      <c r="K17">
-        <v>7.6966725703777801</v>
-      </c>
-      <c r="L17">
-        <v>12.4436203026152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="K18">
+        <v>7.1473004022857154</v>
+      </c>
+      <c r="L18" s="8">
+        <v>12.754567133785713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>2017</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>324.18301359999998</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>243.23361068859899</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1.7594607733757801</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>8.8024185559999903</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>2.9251986900000002</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>62.277053466587603</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
+      <c r="H19">
         <v>75.764131485963375</v>
       </c>
-      <c r="I18">
-        <v>18.118780754633999</v>
-      </c>
-      <c r="J18">
+      <c r="I19">
+        <v>18.865205999089284</v>
+      </c>
+      <c r="J19">
         <v>230.02047540000001</v>
       </c>
-      <c r="K18">
-        <v>7.5893160382774498</v>
-      </c>
-      <c r="L18">
-        <v>12.3086549482457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="K19">
+        <v>6.7750071284571423</v>
+      </c>
+      <c r="L19" s="8">
+        <v>12.090198870632145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>2018</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>318.38954589999997</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>248.22923077267799</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1.7661322940486699</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>11.125853149999999</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>3.12516259</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>49.472046638650397</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
+      <c r="H20">
         <v>65.489194672699071</v>
       </c>
-      <c r="I19">
-        <v>18.850735456309302</v>
-      </c>
-      <c r="J19">
+      <c r="I20">
+        <v>19.054307386089288</v>
+      </c>
+      <c r="J20">
         <v>233.7156392</v>
       </c>
-      <c r="K19">
-        <v>7.7845185044454803</v>
-      </c>
-      <c r="L19">
-        <v>12.2761265678963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="K20">
+        <v>6.8429185652571425</v>
+      </c>
+      <c r="L20" s="8">
+        <v>12.211388820832148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>2019</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="10">
         <v>316.26384510000003</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="10">
         <v>252.15631374102099</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="10">
         <v>0.94079999999999997</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="10">
         <v>11.39270705</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="10">
         <v>3.1508672500000001</v>
       </c>
-      <c r="G20">
+      <c r="G21" s="10">
         <v>46.603578993795999</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
+      <c r="H21" s="10">
         <v>62.087953293795998</v>
       </c>
-      <c r="I20">
-        <v>19.007341588765701</v>
-      </c>
-      <c r="J20">
+      <c r="I21" s="10">
+        <v>19.508703554767859</v>
+      </c>
+      <c r="J21" s="10">
         <v>238.06803811</v>
       </c>
-      <c r="K20">
-        <v>7.8174411095030196</v>
-      </c>
-      <c r="L20">
-        <v>12.496309268088799</v>
+      <c r="K21" s="10">
+        <v>7.0061045533714283</v>
+      </c>
+      <c r="L21" s="11">
+        <v>12.502599001396433</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>